--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-10T13:33:39+05:45</t>
+    <t>2025-08-12T23:24:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T23:24:39+05:45</t>
+    <t>2025-08-13T23:06:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T23:06:39+05:45</t>
+    <t>2025-08-14T11:08:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.hmis.gov.np/StructureDefinition/ethnic-code</t>
+    <t>https://fhir.hmis.gov.np/StructureDefinition/ethnic-code</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T11:08:36+05:45</t>
+    <t>2025-08-14T14:11:38+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T14:11:38+05:45</t>
+    <t>2025-08-14T18:06:03+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-14T18:06:03+05:45</t>
+    <t>2025-08-15T10:07:00+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-15T10:07:00+05:45</t>
+    <t>2025-08-19T07:52:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,7 +337,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://fhir.hmis.gov.np/ValueSet/ethnic-code</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -694,7 +700,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.3984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -709,7 +715,7 @@
     <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="17.08203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.18359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.15234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
@@ -1310,13 +1316,11 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -1343,10 +1347,10 @@
         <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>103</v>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:52:08+05:45</t>
+    <t>2025-08-20T08:30:34+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -135,7 +135,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Patient</t>
   </si>
   <si>
     <t>ID</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ethnic-code.xlsx
+++ b/output/StructureDefinition-ethnic-code.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
